--- a/Results_MA/Tables in Thesis.xlsx
+++ b/Results_MA/Tables in Thesis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Masterarbeit\Quantitative_Results_MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarek\PycharmProjects\Masterarbeit\Results_MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A6E3A2-B4BD-4068-893B-402670A508A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C2C54-E774-458B-A302-2DC9A69EB10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
   <si>
     <t>AUC</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1960,7 @@
   <dimension ref="B2:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2639,7 +2642,7 @@
         <v>0.1134467228216782</v>
       </c>
     </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:21" x14ac:dyDescent="0.35">
       <c r="I17">
         <v>5</v>
       </c>
@@ -2660,7 +2663,10 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="9:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
       <c r="I18">
         <v>6</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="9:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="I19">
         <v>7</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>0.22605839700022989</v>
       </c>
     </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:21" x14ac:dyDescent="0.35">
       <c r="I20">
         <v>8</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>0.24157984727889389</v>
       </c>
     </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:21" x14ac:dyDescent="0.35">
       <c r="I21">
         <v>9</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>0.20488741119238471</v>
       </c>
     </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:21" x14ac:dyDescent="0.35">
       <c r="I22">
         <v>10</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>0.23599476420189999</v>
       </c>
     </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:21" x14ac:dyDescent="0.35">
       <c r="I23">
         <v>11</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>0.1080675567963638</v>
       </c>
     </row>
-    <row r="24" spans="9:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:21" x14ac:dyDescent="0.35">
       <c r="I24">
         <v>12</v>
       </c>
@@ -2888,7 +2894,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="9:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O25" s="13" t="s">
         <v>31</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="9:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="O26" s="24" t="s">
         <v>38</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>0.23373622380426731</v>
       </c>
     </row>
-    <row r="27" spans="9:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:21" x14ac:dyDescent="0.35">
       <c r="O27" s="24" t="s">
         <v>39</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>0.20022055938809799</v>
       </c>
     </row>
-    <row r="28" spans="9:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:21" x14ac:dyDescent="0.35">
       <c r="O28" s="24" t="s">
         <v>37</v>
       </c>
@@ -2980,7 +2986,7 @@
         <v>0.20498655440502711</v>
       </c>
     </row>
-    <row r="29" spans="9:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:21" x14ac:dyDescent="0.35">
       <c r="O29" s="24" t="s">
         <v>38</v>
       </c>
@@ -3003,13 +3009,13 @@
         <v>0.233851413467701</v>
       </c>
     </row>
-    <row r="31" spans="9:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:21" x14ac:dyDescent="0.35">
       <c r="O31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="9:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O32" s="13" t="s">
         <v>31</v>
       </c>
